--- a/Input/April_International_ROW/benefits.xlsx
+++ b/Input/April_International_ROW/benefits.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
-  <si>
-    <t xml:space="preserve">Plan Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
+  <si>
+    <t xml:space="preserve">PlanName</t>
   </si>
   <si>
     <t xml:space="preserve">Annual Limit</t>
@@ -148,30 +149,6 @@
     <t xml:space="preserve">Monthly Surcharge</t>
   </si>
   <si>
-    <t xml:space="preserve">Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co-pay/excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-patient only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-patient / In &amp; Out-patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Routine Maternity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deductible</t>
   </si>
   <si>
@@ -199,14 +176,24 @@
     <t xml:space="preserve">copay</t>
   </si>
   <si>
+    <t xml:space="preserve">planCopay</t>
+  </si>
+  <si>
     <t xml:space="preserve">International</t>
   </si>
   <si>
     <t xml:space="preserve">USD 2,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">• Worldwide excluding USA &amp; Carribean
-• Worldwide</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Worldwide excluding USA &amp; Carribean/Worldwide including USA
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">No network restriction</t>
@@ -257,23 +244,6 @@
     <t xml:space="preserve">Available</t>
   </si>
   <si>
-    <t xml:space="preserve">IP
-•NIL excess
-•USD 200 excess
-•USD 500 excess
-•USD 1,000 excess
-•USD 2,000 excess
-•USD 5,000 excess
-•USD 10,000 excess
-•USD 20,000 excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">IP</t>
   </si>
   <si>
@@ -301,7 +271,7 @@
     <t xml:space="preserve">NIL excess/ip-option-1</t>
   </si>
   <si>
-    <t xml:space="preserve">op-option-1</t>
+    <t xml:space="preserve">single</t>
   </si>
   <si>
     <t xml:space="preserve">International Plus</t>
@@ -338,24 +308,10 @@
 Presciption drugs covered up to USD 200 following consultation</t>
   </si>
   <si>
-    <t xml:space="preserve">IP
-•NIL excess
-•USD 200 excess
-•USD 500 excess
-•USD 1,000 excess
-•USD 2,000 excess
-•USD 5,000 excess
-•USD 10,000 excess
-•USD 20,000 excess
-OP
-•USD 100 excess (default)
-•NIL excess (optional)</t>
-  </si>
-  <si>
     <t xml:space="preserve">OP</t>
   </si>
   <si>
-    <t xml:space="preserve">$200 voluntary excess</t>
+    <t xml:space="preserve">USD 200 voluntary excess</t>
   </si>
   <si>
     <t xml:space="preserve">NIL excess (optional)</t>
@@ -364,10 +320,7 @@
     <t xml:space="preserve">Worldwide including USA</t>
   </si>
   <si>
-    <t xml:space="preserve">$200 voluntary excess/ip-option-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op-option-2</t>
+    <t xml:space="preserve">USD 200 voluntary excess/ip-option-2</t>
   </si>
   <si>
     <t xml:space="preserve">Executive</t>
@@ -400,10 +353,10 @@
 OP Psychiatric Therapies covered up to USD 4,000</t>
   </si>
   <si>
-    <t xml:space="preserve">$500 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$500 voluntary excess/ip-option-3</t>
+    <t xml:space="preserve">USD 500 voluntary excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 500 voluntary excess/ip-option-3</t>
   </si>
   <si>
     <t xml:space="preserve">Executive Plus</t>
@@ -437,34 +390,40 @@
 OP Psychiatric Therapies covered up to USD 6,000</t>
   </si>
   <si>
-    <t xml:space="preserve">$1,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,000 voluntary excess/ip-option-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2,000 voluntary excess/ip-option-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5,000 voluntary excess/ip-option-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10,000 voluntary excess/ip-option-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$20,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$20,000 voluntary excess/ip-option-8</t>
+    <t xml:space="preserve">USD 1,000 voluntary excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 1,000 voluntary excess/ip-option-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 2,000 voluntary excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 2,000 voluntary excess/ip-option-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 5,000 voluntary excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 5,000 voluntary excess/ip-option-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 10,000 voluntary excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 10,000 voluntary excess/ip-option-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 20,000 voluntary excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 20,000 voluntary excess/ip-option-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op-option-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op-option-2</t>
   </si>
 </sst>
 </file>
@@ -475,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -496,6 +455,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -547,7 +522,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -564,11 +539,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,26 +572,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM9"/>
+  <dimension ref="A1:BC9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ5" activeCellId="0" sqref="BJ5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW3" activeCellId="0" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="37.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="29.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="29.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="23.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="9.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="33.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="32.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="28.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="9.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="33.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="35.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -741,700 +725,568 @@
       <c r="AS1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AW1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AX1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AY1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BA1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BB1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BC1" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL1" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BB2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BC2" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL2" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>78</v>
+      <c r="AT3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI3" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL3" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB3" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI4" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL4" s="0" t="s">
-        <v>115</v>
+      <c r="AY4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI5" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL5" s="0" t="s">
-        <v>125</v>
+      <c r="AY5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI6" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="BL6" s="0" t="s">
-        <v>127</v>
+      <c r="AY6" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB6" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI7" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL7" s="0" t="s">
-        <v>129</v>
+      <c r="AY7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB7" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL8" s="0" t="s">
-        <v>131</v>
+      <c r="AY8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB8" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI9" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL9" s="0" t="s">
-        <v>133</v>
+      <c r="AY9" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB9" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1446,4 +1298,38 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Input/April_International_ROW/benefits.xlsx
+++ b/Input/April_International_ROW/benefits.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="124">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -185,15 +185,7 @@
     <t xml:space="preserve">USD 2,000,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Worldwide excluding USA &amp; Carribean/Worldwide including USA
-</t>
-    </r>
+    <t xml:space="preserve">Worldwide excluding USA &amp; Carribean/Worldwide including USA</t>
   </si>
   <si>
     <t xml:space="preserve">No network restriction</t>
@@ -211,7 +203,7 @@
     <t xml:space="preserve">Private Room</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with $
+    <t xml:space="preserve">Covered in full with $ excess
 *Pre-authorization required</t>
   </si>
   <si>
@@ -231,7 +223,7 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered upon enrollment up to USD 100,000 with $</t>
+    <t xml:space="preserve">Covered upon enrollment up to USD 100,000 with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">IP Psychiatric Treatment covered in full up to a max of 30 days subject to pre-approval
@@ -268,7 +260,7 @@
     <t xml:space="preserve">Worldwide excluding USA &amp; Carribean</t>
   </si>
   <si>
-    <t xml:space="preserve">NIL excess/ip-option-1</t>
+    <t xml:space="preserve">NIL excess/NIL excess</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
@@ -277,10 +269,10 @@
     <t xml:space="preserve">International Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full with $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full up to 20 sessions with $
+    <t xml:space="preserve">Covered in full with $ excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full up to 20 sessions with $ excess
 *Pre-authorization required</t>
   </si>
   <si>
@@ -295,7 +287,7 @@
 Children: Not Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Microsoft Office User: USD 100/ NIL excess Osteopathy, Chiropractic, Homeopathy and Acupuncture covered in full with $</t>
+    <t xml:space="preserve">Microsoft Office User: USD 100/ NIL excess Osteopathy, Chiropractic, Homeopathy and Acupuncture covered in full with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">IP Psychiatric Treatment covered in full up to a max of 30 days subject to pre-approval
@@ -311,7 +303,7 @@
     <t xml:space="preserve">OP</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 200 voluntary excess</t>
+    <t xml:space="preserve">USD 200 excess</t>
   </si>
   <si>
     <t xml:space="preserve">NIL excess (optional)</t>
@@ -320,19 +312,19 @@
     <t xml:space="preserve">Worldwide including USA</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 200 voluntary excess/ip-option-2</t>
+    <t xml:space="preserve">USD 200 excess/USD 200 excess</t>
   </si>
   <si>
     <t xml:space="preserve">Executive</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 12,000 with $</t>
+    <t xml:space="preserve">Covered up to USD 12,000 with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">18 months wait</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered upon enrollment up to USD 150,000 with $</t>
+    <t xml:space="preserve">Covered upon enrollment up to USD 150,000 with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">Routine Dental covered up to USD 1,500</t>
@@ -344,7 +336,7 @@
   </si>
   <si>
     <t xml:space="preserve">Chinese Medicine covered up to USD 400
-Osteopathy, Chiropractic, Homeopathy and Acupuncture covered in full with $</t>
+Osteopathy, Chiropractic, Homeopathy and Acupuncture covered in full with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">IP Psychiatric Treatment covered in full up to a max of 30 days subject to pre-approval
@@ -353,19 +345,19 @@
 OP Psychiatric Therapies covered up to USD 4,000</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 500 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 500 voluntary excess/ip-option-3</t>
+    <t xml:space="preserve">USD 500 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 500 excess/USD 500 excess</t>
   </si>
   <si>
     <t xml:space="preserve">Executive Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 20,000 with $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered upon enrollment up to USD 200,000 with $</t>
+    <t xml:space="preserve">Covered up to USD 20,000 with $ excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered upon enrollment up to USD 200,000 with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">Routine Dental covered up to USD 2,500</t>
@@ -381,7 +373,7 @@
   </si>
   <si>
     <t xml:space="preserve">Chinese Medicine covered up to USD 800
-Osteopathy, Chiropractic, Homeopathy and Acupuncture covered in full with $</t>
+Osteopathy, Chiropractic, Homeopathy and Acupuncture covered in full with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">IP Psychiatric Treatment covered in full up to a max of 30 days subject to pre-approval
@@ -390,40 +382,40 @@
 OP Psychiatric Therapies covered up to USD 6,000</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 1,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 1,000 voluntary excess/ip-option-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 2,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 2,000 voluntary excess/ip-option-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 5,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 5,000 voluntary excess/ip-option-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 10,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 10,000 voluntary excess/ip-option-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 20,000 voluntary excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 20,000 voluntary excess/ip-option-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op-option-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op-option-2</t>
+    <t xml:space="preserve">USD 1,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 1,000 excess/USD 1,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 2,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 2,000 excess/USD 2,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 5,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 5,000 excess/USD 5,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 10,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 10,000 excess/USD 10,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 20,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 20,000 excess/USD 20,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 100 excess (default)/USD 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIL excess (optional)/NIL</t>
   </si>
 </sst>
 </file>
@@ -434,7 +426,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -457,19 +449,9 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -522,7 +504,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,11 +521,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,7 +529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,20 +552,21 @@
   </sheetPr>
   <dimension ref="A1:BC9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW3" activeCellId="0" sqref="AW3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="64.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="37.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="28.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="29.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="29.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="9.69"/>
@@ -734,7 +713,7 @@
       <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AX1" s="0" t="s">
@@ -763,7 +742,7 @@
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -872,7 +851,7 @@
       <c r="AU2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="AW2" s="0" t="s">
@@ -887,7 +866,7 @@
       <c r="AZ2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="6" t="s">
         <v>77</v>
       </c>
       <c r="BB2" s="0" t="s">
@@ -904,7 +883,7 @@
       <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1016,7 +995,7 @@
       <c r="AZ3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BA3" s="6" t="s">
         <v>92</v>
       </c>
       <c r="BB3" s="0" t="s">
@@ -1030,7 +1009,7 @@
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1147,7 +1126,7 @@
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1305,22 +1284,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Input/April_International_ROW/benefits.xlsx
+++ b/Input/April_International_ROW/benefits.xlsx
@@ -552,11 +552,11 @@
   </sheetPr>
   <dimension ref="A1:BC9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BB10" activeCellId="0" sqref="BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.78"/>
@@ -1290,7 +1290,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
   </cols>

--- a/Input/April_International_ROW/benefits.xlsx
+++ b/Input/April_International_ROW/benefits.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -207,14 +207,19 @@
 *Pre-authorization required</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-hospital consultations covered within 15 days prior to treatment
-Post-hospital consultations covered within 90 days after treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-hospital and post-hospital treatment covered</t>
+    <t xml:space="preserve">Pre-hospital consultations covered within 15 days prior to treatment with $ excess Post-hospital consultations covered within 90 days after treatment with $ excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-hospital consultations covered within 15 days prior to treatment with 4 excess Post-hospital consultations covered within 90 days after treatment with $ excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-hospital and post-hospital treatment covered with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to USD 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-hospital and post-hospital treatment covered with $ excess OP Surgeries covered up to USD 10,000 with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">Not Available</t>
@@ -242,7 +247,7 @@
     <t xml:space="preserve">ROW</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-09-01</t>
+    <t xml:space="preserve">2025-01-01</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
@@ -270,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">Covered in full with $ excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with $ excess OP Surgeries covered in full with $ excess</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full up to 20 sessions with $ excess
@@ -426,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -459,7 +467,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,7 +523,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,12 +544,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -552,11 +579,11 @@
   </sheetPr>
   <dimension ref="A1:BC9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB10" activeCellId="0" sqref="BB10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AX1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BB2" activeCellId="0" sqref="BB2:BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.78"/>
@@ -775,70 +802,70 @@
         <v>60</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="R2" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="S2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
@@ -846,39 +873,39 @@
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="BB2" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BC2" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>53</v>
@@ -917,69 +944,69 @@
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
@@ -987,24 +1014,24 @@
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
@@ -1043,69 +1070,69 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
@@ -1113,15 +1140,15 @@
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
       <c r="AY4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
@@ -1160,69 +1187,69 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
@@ -1230,42 +1257,42 @@
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AY5" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AY6" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AY7" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AY8" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AY9" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1287,58 +1314,58 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="BB2:BB10 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
